--- a/medicine/Psychotrope/Alain_Huetz_de_Lemps/Alain_Huetz_de_Lemps.xlsx
+++ b/medicine/Psychotrope/Alain_Huetz_de_Lemps/Alain_Huetz_de_Lemps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Huetz de Lemps, né le 29 juin 1926 à Bourges (Cher), est un géographe, botaniste, économiste français.
 </t>
@@ -513,13 +525,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et études
-Alain Huetz de Lemps passe avec succès l'agrégation de géographie en 1949. En 1969, Il passe son doctorat d'État à l'université Panthéon-Sorbonne : Vignobles et vins du nord-ouest de l'Espagne, sous la direction de Roger Dion et de Georges Chabot.
-Parcours professionnel
-Il est nommé au lycée d'Alger en 1950. Il y reste jusqu'en 1951. Il est ensuite lecteur à l'université de Nouvelle-Zélande de 1952 à 1953, et parcourt les îles d’Océanie puis l’Australie[1]. Il est lauréat et pensionnaire de l'École des Hautes Études Hispaniques de la Casa de Velázquez à Madrid de septembre 1954 à 1955.
-La Casa ayant été détruite pendant la guerre, il loge avec quelques autres pensionnaires dans un hôtel particulier du quartier El Viso de Madrid. Il y a là les époux Geoffroy Dauvergne, Courtin, Berland peintres, Olivier Pettit, sculpteur et son épouse Carmen, Geneviève Laurent, Jean Mamez, Albert Zavaro, peintres, les Couprianoff, architecte, Jean Joyet et son épouse Marcelle Deloron, peintres, Mickaël Compagnion peintre, Gaston Sébire, Paul Collomb, peintres René Quillivic graveur, Bachir Yellès, Ernest Risse[2].
-Il est chargé de cours à l'université Bordeaux-Montaigne durant 40 ans d'abord en tant qu'assistant en 1956, puis maître-assistant en 1961, maître de conférences en 1967 et enfin professeur de 1969 à 1991[3].
-Il participe avec Louis Papy, doyen de la Faculté des Lettres, Henri Enjalbert, René Pijassou et Philippe Roudié, à la création du Centre d'études géographiques et historique sur la vigne et le vin (le CERVIN), ouvert le 19 novembre 1969[4].
+          <t>Jeunesse et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alain Huetz de Lemps passe avec succès l'agrégation de géographie en 1949. En 1969, Il passe son doctorat d'État à l'université Panthéon-Sorbonne : Vignobles et vins du nord-ouest de l'Espagne, sous la direction de Roger Dion et de Georges Chabot.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alain_Huetz_de_Lemps</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Huetz_de_Lemps</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parcours professionnel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est nommé au lycée d'Alger en 1950. Il y reste jusqu'en 1951. Il est ensuite lecteur à l'université de Nouvelle-Zélande de 1952 à 1953, et parcourt les îles d’Océanie puis l’Australie. Il est lauréat et pensionnaire de l'École des Hautes Études Hispaniques de la Casa de Velázquez à Madrid de septembre 1954 à 1955.
+La Casa ayant été détruite pendant la guerre, il loge avec quelques autres pensionnaires dans un hôtel particulier du quartier El Viso de Madrid. Il y a là les époux Geoffroy Dauvergne, Courtin, Berland peintres, Olivier Pettit, sculpteur et son épouse Carmen, Geneviève Laurent, Jean Mamez, Albert Zavaro, peintres, les Couprianoff, architecte, Jean Joyet et son épouse Marcelle Deloron, peintres, Mickaël Compagnion peintre, Gaston Sébire, Paul Collomb, peintres René Quillivic graveur, Bachir Yellès, Ernest Risse.
+Il est chargé de cours à l'université Bordeaux-Montaigne durant 40 ans d'abord en tant qu'assistant en 1956, puis maître-assistant en 1961, maître de conférences en 1967 et enfin professeur de 1969 à 1991.
+Il participe avec Louis Papy, doyen de la Faculté des Lettres, Henri Enjalbert, René Pijassou et Philippe Roudié, à la création du Centre d'études géographiques et historique sur la vigne et le vin (le CERVIN), ouvert le 19 novembre 1969.
 Docteur Honoris Causa de l'Université de Valladolid en Espagne, il est l'auteur de nombreux ouvrages et d'articles, sur le vin, les spiritueux espagnols, et un spécialiste de la géographie et de l'histoire de l'Espagne.
 En 1994, il participe au premier Congrès international de Puerto de Sant Maria (Cadix) ainsi qu'à plusieurs autres colloques .Il participe également à la création de l'association internationale Histoire et de Civilisation de la Vigne et du Vin (Histovid), dont Philippe Roudié fut président de 1999 à 2004. Ce dernier organise le 3e grand Colloque tenu à Bordeaux en octobre 1992 en hommage à Alain Huetz de Lemps pour son volume de 655 pages qui regroupe 30 études sur les vignobles, vins et eaux-de-vie de France et 26 sur les vignobles étrangers.
 Membre de l'Académie nationale des Sciences, Belles-Lettres et Arts de Bordeaux, dont il fut le Vice-Président en 2001 et 2002. Il est également co-directeur des Cahiers d'Outre-Mer de 1980 à 1991.
@@ -529,31 +581,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Alain_Huetz_de_Lemps</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alain_Huetz_de_Lemps</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(liste non exhaustive)
 1954 -  Australie et Nouvelle-Zélande , éd.PUF, réd.1980, 128.p.
@@ -590,31 +644,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Alain_Huetz_de_Lemps</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alain_Huetz_de_Lemps</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Élèves</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
